--- a/data/pca/factorExposure/factorExposure_2012-07-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-23.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +689,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002180492346061002</v>
+        <v>-0.001727872359515775</v>
       </c>
       <c r="C2">
-        <v>0.02943326179737885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02929728859137352</v>
+      </c>
+      <c r="D2">
+        <v>-0.003161496748718469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +730,27 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.003736216539747953</v>
+        <v>0.006582005407240871</v>
       </c>
       <c r="C4">
-        <v>0.08918556611413934</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.08386498256594534</v>
+      </c>
+      <c r="D4">
+        <v>-0.06940281455456261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +758,167 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.009899473840895165</v>
+        <v>0.01482237724372</v>
       </c>
       <c r="C6">
-        <v>0.1155744379722701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.1194637201955529</v>
+      </c>
+      <c r="D6">
+        <v>-0.0165641606931817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002132367905814624</v>
+        <v>0.004367813662416138</v>
       </c>
       <c r="C7">
-        <v>0.05558816159251807</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.05939067521689555</v>
+      </c>
+      <c r="D7">
+        <v>-0.03304739426295836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.003466568994721736</v>
+        <v>0.004140701530386824</v>
       </c>
       <c r="C8">
-        <v>0.04163518645494793</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.03641737133194846</v>
+      </c>
+      <c r="D8">
+        <v>-0.03806744864057957</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003228461436833584</v>
+        <v>0.006229623838280676</v>
       </c>
       <c r="C9">
-        <v>0.07621516091427509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.07515508040230427</v>
+      </c>
+      <c r="D9">
+        <v>-0.07058814759483699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0002587466691876912</v>
+        <v>0.001250818364289985</v>
       </c>
       <c r="C10">
-        <v>0.04343814275480375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04839920722666006</v>
+      </c>
+      <c r="D10">
+        <v>0.1852576508832669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002786171392343793</v>
+        <v>0.006339352543930044</v>
       </c>
       <c r="C11">
-        <v>0.08759282372592561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.08267774301867337</v>
+      </c>
+      <c r="D11">
+        <v>-0.06611731869597838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.002454129993142254</v>
+        <v>0.005076728757147151</v>
       </c>
       <c r="C12">
-        <v>0.07040152669392183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.06806983042022674</v>
+      </c>
+      <c r="D12">
+        <v>-0.04817871845134839</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.006033095289597047</v>
+        <v>0.009092454489082351</v>
       </c>
       <c r="C13">
-        <v>0.07652794912619802</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.07039462127961174</v>
+      </c>
+      <c r="D13">
+        <v>-0.05437447299430904</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001194965050253295</v>
+        <v>0.0001081868389831821</v>
       </c>
       <c r="C14">
-        <v>0.04325879134533272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.0437475562778552</v>
+      </c>
+      <c r="D14">
+        <v>-0.01048062578929631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.005286411257481314</v>
+        <v>0.006689421984086525</v>
       </c>
       <c r="C15">
-        <v>0.04202304931645699</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.04054455928252355</v>
+      </c>
+      <c r="D15">
+        <v>-0.01997723878308019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.00362156831363628</v>
+        <v>0.005779501252046268</v>
       </c>
       <c r="C16">
-        <v>0.0727048717140603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.06733751800696204</v>
+      </c>
+      <c r="D16">
+        <v>-0.05794457474707235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +926,13 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +940,13 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +954,111 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.006464799272035304</v>
+        <v>0.008477923202260816</v>
       </c>
       <c r="C20">
-        <v>0.07259216341482323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.06431586328924366</v>
+      </c>
+      <c r="D20">
+        <v>-0.04979226196846342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.007304833331898775</v>
+        <v>0.008678491262311634</v>
       </c>
       <c r="C21">
-        <v>0.02394176518998883</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01959681932735743</v>
+      </c>
+      <c r="D21">
+        <v>-0.03968527278405101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01101362856604521</v>
+        <v>-0.008241496259013084</v>
       </c>
       <c r="C22">
-        <v>0.1000998595580392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.0847823570736395</v>
+      </c>
+      <c r="D22">
+        <v>-0.1085213232649538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01068890967924602</v>
+        <v>-0.007886468426871424</v>
       </c>
       <c r="C23">
-        <v>0.1005220199025391</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0852643319444638</v>
+      </c>
+      <c r="D23">
+        <v>-0.1097143945843461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.002996941959387795</v>
+        <v>0.006512994898022191</v>
       </c>
       <c r="C24">
-        <v>0.08071533941393863</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.07911001794832388</v>
+      </c>
+      <c r="D24">
+        <v>-0.06525155363314725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.001170913504548475</v>
+        <v>0.003915431492201001</v>
       </c>
       <c r="C25">
-        <v>0.08523601552453183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.08017348117049218</v>
+      </c>
+      <c r="D25">
+        <v>-0.06246413194571591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004433058199592863</v>
+        <v>0.005792125795254986</v>
       </c>
       <c r="C26">
-        <v>0.04053844244418543</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.04025088767247147</v>
+      </c>
+      <c r="D26">
+        <v>-0.02038547272468866</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1066,139 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.00608793918000557</v>
+        <v>-0.003987803366561885</v>
       </c>
       <c r="C28">
-        <v>0.08634575134873643</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.09506335836035452</v>
+      </c>
+      <c r="D28">
+        <v>0.3261571301745368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001765044046440382</v>
+        <v>0.003031266394665542</v>
       </c>
       <c r="C29">
-        <v>0.04690946597949015</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.0474141806328158</v>
+      </c>
+      <c r="D29">
+        <v>-0.008111295824307646</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.004406938508983257</v>
+        <v>0.009351407983564727</v>
       </c>
       <c r="C30">
-        <v>0.1469842268744649</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.1424621301350979</v>
+      </c>
+      <c r="D30">
+        <v>-0.103465694247975</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.004177017954519364</v>
+        <v>0.006129990801222731</v>
       </c>
       <c r="C31">
-        <v>0.04435445588123713</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.045061962700767</v>
+      </c>
+      <c r="D31">
+        <v>-0.02985847570908646</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0009222843899802019</v>
+        <v>0.002294531966577099</v>
       </c>
       <c r="C32">
-        <v>0.0416151581456395</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.03717132685824202</v>
+      </c>
+      <c r="D32">
+        <v>-0.0133852545176314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.005394383830894752</v>
+        <v>0.009292261695428839</v>
       </c>
       <c r="C33">
-        <v>0.09202175393992514</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.09331753284075399</v>
+      </c>
+      <c r="D33">
+        <v>-0.06142698221837634</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.00238073279288982</v>
+        <v>0.004888967909377507</v>
       </c>
       <c r="C34">
-        <v>0.0613941430283754</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.060360939092656</v>
+      </c>
+      <c r="D34">
+        <v>-0.0572188294976343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.003731153090097418</v>
+        <v>0.00501545631210877</v>
       </c>
       <c r="C35">
-        <v>0.04095006867292376</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.04076111660067113</v>
+      </c>
+      <c r="D35">
+        <v>-0.01195488921950841</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.002610136015790437</v>
+        <v>-0.001153158833061251</v>
       </c>
       <c r="C36">
-        <v>0.02419074229810048</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.02555683360277174</v>
+      </c>
+      <c r="D36">
+        <v>-0.01960879742057871</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1206,69 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.006422269948886078</v>
+        <v>0.008253212328572493</v>
       </c>
       <c r="C38">
-        <v>0.03920969909683486</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.03905190853839399</v>
+      </c>
+      <c r="D38">
+        <v>-0.01204727073304575</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.006883999741373644</v>
+        <v>-0.002288303629151779</v>
       </c>
       <c r="C39">
-        <v>0.1189149644698309</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.1140706292788276</v>
+      </c>
+      <c r="D39">
+        <v>-0.08291605185956534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.0001028298995651069</v>
+        <v>0.002447093625048447</v>
       </c>
       <c r="C40">
-        <v>0.08923225131851088</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.08505158733404447</v>
+      </c>
+      <c r="D40">
+        <v>-0.006668295404642225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.006309701029266549</v>
+        <v>0.007906496508532859</v>
       </c>
       <c r="C41">
-        <v>0.04075716581040882</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.04213554353253914</v>
+      </c>
+      <c r="D41">
+        <v>-0.04231873078124806</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1276,41 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.0009148325276186011</v>
+        <v>0.004052613877109664</v>
       </c>
       <c r="C43">
-        <v>0.05274900495145911</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.05397574989385547</v>
+      </c>
+      <c r="D43">
+        <v>-0.02626093644869451</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.0001007392142290417</v>
+        <v>0.002588590923241316</v>
       </c>
       <c r="C44">
-        <v>0.1228245662409794</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.1046516324708135</v>
+      </c>
+      <c r="D44">
+        <v>-0.0627960288510953</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1318,97 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.0001310694751008048</v>
+        <v>0.0007508326535916598</v>
       </c>
       <c r="C46">
-        <v>0.03449826023154678</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.03138361431248138</v>
+      </c>
+      <c r="D46">
+        <v>-0.03304792989377815</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.001540821032166699</v>
+        <v>0.002618291506452833</v>
       </c>
       <c r="C47">
-        <v>0.03713878823641688</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.03554667656974938</v>
+      </c>
+      <c r="D47">
+        <v>-0.01878604453072101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.006609437151098964</v>
+        <v>0.007888804059002818</v>
       </c>
       <c r="C48">
-        <v>0.03119470661444792</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.03250488509876794</v>
+      </c>
+      <c r="D48">
+        <v>-0.02770327274070563</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01213950238854663</v>
+        <v>0.0194386700308059</v>
       </c>
       <c r="C49">
-        <v>0.1859115785250476</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.1884127506846075</v>
+      </c>
+      <c r="D49">
+        <v>-0.009301213558570356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0031186712724841</v>
+        <v>0.004463762052738744</v>
       </c>
       <c r="C50">
-        <v>0.03996946400084253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.04356952532632962</v>
+      </c>
+      <c r="D50">
+        <v>-0.0389796338658932</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.003087725479097617</v>
+        <v>0.004147460180334446</v>
       </c>
       <c r="C51">
-        <v>0.03054662659561237</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.02840375694175446</v>
+      </c>
+      <c r="D51">
+        <v>-0.02426716132842869</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1416,69 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.01523850764645661</v>
+        <v>0.02165090253159206</v>
       </c>
       <c r="C53">
-        <v>0.1738548169497321</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.1719264552655623</v>
+      </c>
+      <c r="D53">
+        <v>-0.02045374153395875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.006650941637480937</v>
+        <v>0.008998787483938229</v>
       </c>
       <c r="C54">
-        <v>0.05752370509231602</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.05708479388567764</v>
+      </c>
+      <c r="D54">
+        <v>-0.03885912902666983</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.007147716214908675</v>
+        <v>0.01031059742567163</v>
       </c>
       <c r="C55">
-        <v>0.1135583976057589</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.1087375870449758</v>
+      </c>
+      <c r="D55">
+        <v>-0.03126735679525947</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.01359509334654697</v>
+        <v>0.02071958921167024</v>
       </c>
       <c r="C56">
-        <v>0.1732368133670991</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.1729072905620125</v>
+      </c>
+      <c r="D56">
+        <v>-0.01491852503659254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1486,545 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.01609300703725113</v>
+        <v>0.01817528109094085</v>
       </c>
       <c r="C58">
-        <v>0.1212643152624766</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.1050951215487494</v>
+      </c>
+      <c r="D58">
+        <v>-0.05558485840408031</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.002461631989882266</v>
+        <v>0.009002913985664312</v>
       </c>
       <c r="C59">
-        <v>0.1377741006883487</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1650630984686504</v>
+      </c>
+      <c r="D59">
+        <v>0.3516502786803043</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.0176975991333035</v>
+        <v>0.02665472331153011</v>
       </c>
       <c r="C60">
-        <v>0.2173980133211183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.2260217149459897</v>
+      </c>
+      <c r="D60">
+        <v>-0.01513806724800547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.005797576690486302</v>
+        <v>-0.00234573669724107</v>
       </c>
       <c r="C61">
-        <v>0.09883616495804112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.09495324793635927</v>
+      </c>
+      <c r="D61">
+        <v>-0.06125292503930693</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1567112397096192</v>
+        <v>0.1593583511514852</v>
       </c>
       <c r="C62">
-        <v>0.1023369063264128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.1065134198774339</v>
+      </c>
+      <c r="D62">
+        <v>-0.01549415984722301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.005006990294674891</v>
+        <v>0.006859674722261303</v>
       </c>
       <c r="C63">
-        <v>0.05528682368541867</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.05378860383939649</v>
+      </c>
+      <c r="D63">
+        <v>-0.03227517478757745</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01475552739686662</v>
+        <v>0.0179823238647939</v>
       </c>
       <c r="C64">
-        <v>0.1147610096754755</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.1120148611008266</v>
+      </c>
+      <c r="D64">
+        <v>-0.05035652732765821</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.01391036277281206</v>
+        <v>0.01788282590289663</v>
       </c>
       <c r="C65">
-        <v>0.1242293758566164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.1270725914285962</v>
+      </c>
+      <c r="D65">
+        <v>-0.01925721318078412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.00791808082880578</v>
+        <v>0.01425738366358852</v>
       </c>
       <c r="C66">
-        <v>0.164392921790761</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.163278552103015</v>
+      </c>
+      <c r="D66">
+        <v>-0.1173764370321446</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.01152509320931458</v>
+        <v>0.01467422649336579</v>
       </c>
       <c r="C67">
-        <v>0.07322275182347002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.07265742999080607</v>
+      </c>
+      <c r="D67">
+        <v>-0.02621849142711378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.00149619281748584</v>
+        <v>0.0008169223104786375</v>
       </c>
       <c r="C68">
-        <v>0.07285541787390513</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.08125410307352234</v>
+      </c>
+      <c r="D68">
+        <v>0.2649261685942628</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002651143908940744</v>
+        <v>0.005486263894693258</v>
       </c>
       <c r="C69">
-        <v>0.05543730752692651</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.05326309297474548</v>
+      </c>
+      <c r="D69">
+        <v>-0.03660589572139907</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001315681338830205</v>
+        <v>0.002829939803779711</v>
       </c>
       <c r="C70">
-        <v>0.002207920556877562</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.009471774719412738</v>
+      </c>
+      <c r="D70">
+        <v>-0.0004248770579918547</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001008969747213772</v>
+        <v>0.003527331298784623</v>
       </c>
       <c r="C71">
-        <v>0.07435330506817167</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.08413356882959423</v>
+      </c>
+      <c r="D71">
+        <v>0.304399294583888</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.01195682367527421</v>
+        <v>0.01848522285328119</v>
       </c>
       <c r="C72">
-        <v>0.1515519457225082</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.1588684017858705</v>
+      </c>
+      <c r="D72">
+        <v>-0.009024406713982311</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.02319018219143009</v>
+        <v>0.03224420242532391</v>
       </c>
       <c r="C73">
-        <v>0.2873725570227258</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.2859190479771094</v>
+      </c>
+      <c r="D73">
+        <v>-0.05782085949276703</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.001419357535101288</v>
+        <v>0.001718750038353662</v>
       </c>
       <c r="C74">
-        <v>0.1068301969366876</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.103276135108936</v>
+      </c>
+      <c r="D74">
+        <v>-0.03154925011748243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.006824434373973233</v>
+        <v>0.01196043153732631</v>
       </c>
       <c r="C75">
-        <v>0.1216863834937514</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.116812935671737</v>
+      </c>
+      <c r="D75">
+        <v>-0.02474076345671482</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01689931485238906</v>
+        <v>0.02208295311385169</v>
       </c>
       <c r="C76">
-        <v>0.149395735897275</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.1452171813767379</v>
+      </c>
+      <c r="D76">
+        <v>-0.05281036153930881</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.01607713216801332</v>
+        <v>0.02212808022931493</v>
       </c>
       <c r="C77">
-        <v>0.1093845854000468</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.1043924496709778</v>
+      </c>
+      <c r="D77">
+        <v>-0.0441705301595633</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.01045587688523689</v>
+        <v>0.01470728445737162</v>
       </c>
       <c r="C78">
-        <v>0.09570329749178548</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.103335526295612</v>
+      </c>
+      <c r="D78">
+        <v>-0.07534571243840484</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.0337624143961307</v>
+        <v>0.04028150509422157</v>
       </c>
       <c r="C79">
-        <v>0.1608144054889695</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.1561284926539519</v>
+      </c>
+      <c r="D79">
+        <v>-0.0256263292128851</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.009341483091298718</v>
+        <v>0.009650779328823019</v>
       </c>
       <c r="C80">
-        <v>0.04742483685119837</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.03911686745349627</v>
+      </c>
+      <c r="D80">
+        <v>-0.02441016051888225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.01093985124275474</v>
+        <v>0.01618588265998241</v>
       </c>
       <c r="C81">
-        <v>0.13256076517705</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.1298181796746412</v>
+      </c>
+      <c r="D81">
+        <v>-0.03697652253349527</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.01412360975366039</v>
+        <v>0.01999829787777447</v>
       </c>
       <c r="C82">
-        <v>0.1428423061363386</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.1366412416253613</v>
+      </c>
+      <c r="D82">
+        <v>-0.03702127872418626</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.009716717401316645</v>
+        <v>0.01248133963605183</v>
       </c>
       <c r="C83">
-        <v>0.07408271564597087</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.06699271819759975</v>
+      </c>
+      <c r="D83">
+        <v>-0.04455706751644993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.007451268986317388</v>
+        <v>0.008082751914430664</v>
       </c>
       <c r="C84">
-        <v>0.02875568258212753</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.03498609403558905</v>
+      </c>
+      <c r="D84">
+        <v>-0.009338164457208016</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.02526066271580758</v>
+        <v>0.02891699241326325</v>
       </c>
       <c r="C85">
-        <v>0.1385741485669872</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.1221438374637612</v>
+      </c>
+      <c r="D85">
+        <v>-0.03682397355996532</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.002183238160840649</v>
+        <v>0.004095050820224541</v>
       </c>
       <c r="C86">
-        <v>0.05208379229636779</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.04869303847433375</v>
+      </c>
+      <c r="D86">
+        <v>-0.01581190935501792</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.007429104855265592</v>
+        <v>0.0122679662462563</v>
       </c>
       <c r="C87">
-        <v>0.1382878016961197</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.1283479298547042</v>
+      </c>
+      <c r="D87">
+        <v>-0.07379798959482792</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.006477860581839112</v>
+        <v>-0.003914534453913951</v>
       </c>
       <c r="C88">
-        <v>0.06916458388583936</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.06461438282821544</v>
+      </c>
+      <c r="D88">
+        <v>-0.02562150636647563</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.009017256873929447</v>
+        <v>-0.004083151970076843</v>
       </c>
       <c r="C89">
-        <v>0.1096525853649745</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.1262658390587273</v>
+      </c>
+      <c r="D89">
+        <v>0.3236599588890626</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.0003949192008479231</v>
+        <v>0.003664725847137865</v>
       </c>
       <c r="C90">
-        <v>0.09889679014226237</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.1088743975043611</v>
+      </c>
+      <c r="D90">
+        <v>0.314638859310029</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.006739388077074073</v>
+        <v>0.01059226886933197</v>
       </c>
       <c r="C91">
-        <v>0.1028161479105981</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.09886726742813563</v>
+      </c>
+      <c r="D91">
+        <v>-0.02725721764768432</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.002525807070025875</v>
+        <v>0.0008593986349877839</v>
       </c>
       <c r="C92">
-        <v>0.1088732517302759</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.120311290274825</v>
+      </c>
+      <c r="D92">
+        <v>0.3295094248039141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001681182736840259</v>
+        <v>0.001839199440788188</v>
       </c>
       <c r="C93">
-        <v>0.08766798249875708</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.1007730536058147</v>
+      </c>
+      <c r="D93">
+        <v>0.3025453785428736</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01676145249357701</v>
+        <v>0.02178295226917177</v>
       </c>
       <c r="C94">
-        <v>0.1511688368438243</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.1348265553591983</v>
+      </c>
+      <c r="D94">
+        <v>-0.05437859629659202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.01486719676760009</v>
+        <v>0.01878779879506729</v>
       </c>
       <c r="C95">
-        <v>0.1276682596312554</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.1234932702667552</v>
+      </c>
+      <c r="D95">
+        <v>-0.06113790273665392</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2032,55 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.02802051010494363</v>
+        <v>0.03884292784880203</v>
       </c>
       <c r="C97">
-        <v>0.2010829168114161</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.2261183716797386</v>
+      </c>
+      <c r="D97">
+        <v>0.01076854490292139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.02821658360538529</v>
+        <v>0.03857808069974667</v>
       </c>
       <c r="C98">
-        <v>0.2699822544116626</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.2657413683018088</v>
+      </c>
+      <c r="D98">
+        <v>-0.03627734116929647</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9831375780128133</v>
+        <v>0.9793026990891212</v>
       </c>
       <c r="C99">
-        <v>-0.08712357516267219</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.1245441216154591</v>
+      </c>
+      <c r="D99">
+        <v>0.02604351956231114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2088,27 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001752583706968497</v>
+        <v>0.003022000781231987</v>
       </c>
       <c r="C101">
-        <v>0.04718364171670162</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.04760797488359309</v>
+      </c>
+      <c r="D101">
+        <v>-0.008778500678746559</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2116,13 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2130,21 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
